--- a/Datasets/college_complete_rural_urban_data/Rural_College_Complete_State.xlsx
+++ b/Datasets/college_complete_rural_urban_data/Rural_College_Complete_State.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristanherink/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristanherink/Election_Prediction/Datasets/college_complete_rural_urban_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{181DC448-8E3F-4A46-BD49-AB0706AD7714}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C0B010-DD2D-494D-BA7D-18C5979EA528}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15520" xr2:uid="{0FA6FB2F-9396-C643-A44B-425EE8FAEC04}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>2014-2018</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
   </si>
 </sst>
 </file>
@@ -566,7 +563,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1572,73 +1569,66 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="A53" s="3"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="1">
-        <v>0.122</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0.193</v>
-      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" xr:uid="{A9D468FF-6D16-A845-8F4D-7962503E4B7A}"/>
-    <hyperlink ref="A3" xr:uid="{53BC3FC7-FABF-6242-8411-4155F5E4E685}"/>
-    <hyperlink ref="A4" xr:uid="{BDF453D1-E1C1-1642-BEDB-CB649AB9C78D}"/>
-    <hyperlink ref="A5" xr:uid="{70C64716-3216-C649-AA47-B6834326D209}"/>
-    <hyperlink ref="A6" xr:uid="{6B44BB90-418C-AD42-9A13-3ED6C34F3A03}"/>
-    <hyperlink ref="A7" xr:uid="{A913A755-8835-074D-9EA1-B93C151B01C0}"/>
-    <hyperlink ref="A8" xr:uid="{96A90847-472B-E340-A954-29F692742131}"/>
-    <hyperlink ref="A9" xr:uid="{4FED553F-8E6A-264E-AA00-9FEF798C616A}"/>
-    <hyperlink ref="A10" xr:uid="{810D96F4-8EC5-5C4A-B51A-EE36F27FCA09}"/>
-    <hyperlink ref="A11" xr:uid="{C2DEEBF0-402D-B04D-A1E0-01C4561EA37B}"/>
-    <hyperlink ref="A12" xr:uid="{4D19EE9E-AE4B-EF4D-BCE7-3824C5030B9A}"/>
-    <hyperlink ref="A13" xr:uid="{E153A4C0-E9DF-0344-B762-F6D31D6BFEAD}"/>
-    <hyperlink ref="A14" xr:uid="{59A0A7C5-E413-794F-95BD-F794B67687BD}"/>
-    <hyperlink ref="A15" xr:uid="{FA185073-06D0-2F48-A56F-8B787879CB49}"/>
-    <hyperlink ref="A16" xr:uid="{D23638B6-9FC6-DB44-9F34-19F30291510A}"/>
-    <hyperlink ref="A17" xr:uid="{4606A4C4-93E4-AF45-8939-8E213E1EC0CE}"/>
-    <hyperlink ref="A18" xr:uid="{C20DD9A2-2025-AE4E-AD48-4D1F1347BC04}"/>
-    <hyperlink ref="A19" xr:uid="{0F4FA9AC-0252-2842-B39C-0839ACBDD4F5}"/>
-    <hyperlink ref="A20" xr:uid="{3C5F9CC0-8655-E543-927A-99999EEF50F7}"/>
-    <hyperlink ref="A21" xr:uid="{AB237825-5660-4647-8424-8F0C1A3B6E90}"/>
-    <hyperlink ref="A22" xr:uid="{857E6157-1483-0347-9994-44547095BF75}"/>
-    <hyperlink ref="A23" xr:uid="{C451FC8A-63D8-5946-BE30-1EC12B2A0D61}"/>
-    <hyperlink ref="A24" xr:uid="{40AA288C-A0AA-6C41-A15A-9BD317801CA2}"/>
-    <hyperlink ref="A25" xr:uid="{FFCC6328-CC0C-B343-8502-3D03148F0E9E}"/>
-    <hyperlink ref="A26" xr:uid="{D06E3AC6-D7E3-B947-A19B-A3909E6561C6}"/>
-    <hyperlink ref="A27" xr:uid="{D15A29BC-7E70-8843-AFD7-D3435F69F002}"/>
-    <hyperlink ref="A28" xr:uid="{10D2D831-F34F-2646-B56B-47CCDF2F95F2}"/>
-    <hyperlink ref="A29" xr:uid="{B10925DE-8FA3-A848-8B05-368B8B1329C4}"/>
-    <hyperlink ref="A30" xr:uid="{A7492210-85B2-EF44-A447-FA366A609205}"/>
-    <hyperlink ref="A31" xr:uid="{025132FB-7A56-F448-85B8-7E1D0578E9BD}"/>
-    <hyperlink ref="A32" xr:uid="{FA12C6E1-2D41-1E40-A7DC-300C6B26167A}"/>
-    <hyperlink ref="A33" xr:uid="{2EB15C3C-299E-8D44-A95B-C9DA7B2AF045}"/>
-    <hyperlink ref="A34" xr:uid="{3747E8E3-12F6-B94B-8421-64E84F9D47EC}"/>
-    <hyperlink ref="A35" xr:uid="{3C35CE0A-AE74-1246-B2AC-1BF1C7C2358E}"/>
-    <hyperlink ref="A36" xr:uid="{74DCFCFF-E6D2-604F-9703-9B824C1DFEE4}"/>
-    <hyperlink ref="A37" xr:uid="{BA737364-5F37-A24C-8AC3-668955E2FAC4}"/>
-    <hyperlink ref="A38" xr:uid="{F5078E1E-096A-0947-B2A1-F8C1BBEF4818}"/>
-    <hyperlink ref="A39" xr:uid="{B7107705-A84B-B748-A2E2-3527FC7DDF0A}"/>
-    <hyperlink ref="A40" xr:uid="{0A36DD6D-1EFD-EF42-8B14-7C0621B37E43}"/>
-    <hyperlink ref="A41" xr:uid="{B5658319-186D-4A49-B67C-97B74B0ABF85}"/>
-    <hyperlink ref="A42" xr:uid="{1E59730D-BD9B-8C40-8D66-2BB497777A11}"/>
-    <hyperlink ref="A43" xr:uid="{C90B5FF6-8AEF-CF45-9D90-2F66FC0FD251}"/>
-    <hyperlink ref="A44" xr:uid="{34CF9A2C-CA24-2441-89BD-3A189E72DBB9}"/>
-    <hyperlink ref="A45" xr:uid="{03AB2E31-E899-7F4B-A4F4-E99983B6829A}"/>
-    <hyperlink ref="A46" xr:uid="{2472D2E6-5450-D340-A9DC-B58C092D2248}"/>
-    <hyperlink ref="A47" xr:uid="{C237FCE9-B58F-5046-99E2-F581EA237A05}"/>
-    <hyperlink ref="A48" xr:uid="{55146525-6B30-1E4D-B7AB-C1F213D87B0A}"/>
-    <hyperlink ref="A49" xr:uid="{E2A66A38-8144-6549-98C0-B7B62714FBB3}"/>
-    <hyperlink ref="A50" xr:uid="{3F8E17A2-5B2C-7B42-8D2B-4074D12BF9CD}"/>
-    <hyperlink ref="A51" xr:uid="{CD0FF911-2976-8F47-A236-55455D048AE1}"/>
-    <hyperlink ref="A52" xr:uid="{B722C75E-9A2C-704C-8C8E-A030292B1770}"/>
-    <hyperlink ref="A53" xr:uid="{FD56633A-6790-204F-B756-8379E72828BB}"/>
+    <hyperlink ref="A2" display="Alabama" xr:uid="{A9D468FF-6D16-A845-8F4D-7962503E4B7A}"/>
+    <hyperlink ref="A3" display="Alaska" xr:uid="{53BC3FC7-FABF-6242-8411-4155F5E4E685}"/>
+    <hyperlink ref="A4" display="Arizona" xr:uid="{BDF453D1-E1C1-1642-BEDB-CB649AB9C78D}"/>
+    <hyperlink ref="A5" display="Arkansas" xr:uid="{70C64716-3216-C649-AA47-B6834326D209}"/>
+    <hyperlink ref="A6" display="California" xr:uid="{6B44BB90-418C-AD42-9A13-3ED6C34F3A03}"/>
+    <hyperlink ref="A7" display="Colorado" xr:uid="{A913A755-8835-074D-9EA1-B93C151B01C0}"/>
+    <hyperlink ref="A8" display="Connecticut" xr:uid="{96A90847-472B-E340-A954-29F692742131}"/>
+    <hyperlink ref="A9" display="Delaware" xr:uid="{4FED553F-8E6A-264E-AA00-9FEF798C616A}"/>
+    <hyperlink ref="A10" display="District of Columbia" xr:uid="{810D96F4-8EC5-5C4A-B51A-EE36F27FCA09}"/>
+    <hyperlink ref="A11" display="Florida" xr:uid="{C2DEEBF0-402D-B04D-A1E0-01C4561EA37B}"/>
+    <hyperlink ref="A12" display="Georgia" xr:uid="{4D19EE9E-AE4B-EF4D-BCE7-3824C5030B9A}"/>
+    <hyperlink ref="A13" display="Hawaii" xr:uid="{E153A4C0-E9DF-0344-B762-F6D31D6BFEAD}"/>
+    <hyperlink ref="A14" display="Idaho" xr:uid="{59A0A7C5-E413-794F-95BD-F794B67687BD}"/>
+    <hyperlink ref="A15" display="Illinois" xr:uid="{FA185073-06D0-2F48-A56F-8B787879CB49}"/>
+    <hyperlink ref="A16" display="Indiana" xr:uid="{D23638B6-9FC6-DB44-9F34-19F30291510A}"/>
+    <hyperlink ref="A17" display="Iowa" xr:uid="{4606A4C4-93E4-AF45-8939-8E213E1EC0CE}"/>
+    <hyperlink ref="A18" display="Kansas" xr:uid="{C20DD9A2-2025-AE4E-AD48-4D1F1347BC04}"/>
+    <hyperlink ref="A19" display="Kentucky" xr:uid="{0F4FA9AC-0252-2842-B39C-0839ACBDD4F5}"/>
+    <hyperlink ref="A20" display="Louisiana" xr:uid="{3C5F9CC0-8655-E543-927A-99999EEF50F7}"/>
+    <hyperlink ref="A21" display="Maine" xr:uid="{AB237825-5660-4647-8424-8F0C1A3B6E90}"/>
+    <hyperlink ref="A22" display="Maryland" xr:uid="{857E6157-1483-0347-9994-44547095BF75}"/>
+    <hyperlink ref="A23" display="Massachusetts" xr:uid="{C451FC8A-63D8-5946-BE30-1EC12B2A0D61}"/>
+    <hyperlink ref="A24" display="Michigan" xr:uid="{40AA288C-A0AA-6C41-A15A-9BD317801CA2}"/>
+    <hyperlink ref="A25" display="Minnesota" xr:uid="{FFCC6328-CC0C-B343-8502-3D03148F0E9E}"/>
+    <hyperlink ref="A26" display="Mississippi" xr:uid="{D06E3AC6-D7E3-B947-A19B-A3909E6561C6}"/>
+    <hyperlink ref="A27" display="Missouri" xr:uid="{D15A29BC-7E70-8843-AFD7-D3435F69F002}"/>
+    <hyperlink ref="A28" display="Montana" xr:uid="{10D2D831-F34F-2646-B56B-47CCDF2F95F2}"/>
+    <hyperlink ref="A29" display="Nebraska" xr:uid="{B10925DE-8FA3-A848-8B05-368B8B1329C4}"/>
+    <hyperlink ref="A30" display="Nevada" xr:uid="{A7492210-85B2-EF44-A447-FA366A609205}"/>
+    <hyperlink ref="A31" display="New Hampshire" xr:uid="{025132FB-7A56-F448-85B8-7E1D0578E9BD}"/>
+    <hyperlink ref="A32" display="New Jersey" xr:uid="{FA12C6E1-2D41-1E40-A7DC-300C6B26167A}"/>
+    <hyperlink ref="A33" display="New Mexico" xr:uid="{2EB15C3C-299E-8D44-A95B-C9DA7B2AF045}"/>
+    <hyperlink ref="A34" display="New York" xr:uid="{3747E8E3-12F6-B94B-8421-64E84F9D47EC}"/>
+    <hyperlink ref="A35" display="North Carolina" xr:uid="{3C35CE0A-AE74-1246-B2AC-1BF1C7C2358E}"/>
+    <hyperlink ref="A36" display="North Dakota" xr:uid="{74DCFCFF-E6D2-604F-9703-9B824C1DFEE4}"/>
+    <hyperlink ref="A37" display="Ohio" xr:uid="{BA737364-5F37-A24C-8AC3-668955E2FAC4}"/>
+    <hyperlink ref="A38" display="Oklahoma" xr:uid="{F5078E1E-096A-0947-B2A1-F8C1BBEF4818}"/>
+    <hyperlink ref="A39" display="Oregon" xr:uid="{B7107705-A84B-B748-A2E2-3527FC7DDF0A}"/>
+    <hyperlink ref="A40" display="Pennsylvania" xr:uid="{0A36DD6D-1EFD-EF42-8B14-7C0621B37E43}"/>
+    <hyperlink ref="A41" display="Rhode Island" xr:uid="{B5658319-186D-4A49-B67C-97B74B0ABF85}"/>
+    <hyperlink ref="A42" display="South Carolina" xr:uid="{1E59730D-BD9B-8C40-8D66-2BB497777A11}"/>
+    <hyperlink ref="A43" display="South Dakota" xr:uid="{C90B5FF6-8AEF-CF45-9D90-2F66FC0FD251}"/>
+    <hyperlink ref="A44" display="Tennessee" xr:uid="{34CF9A2C-CA24-2441-89BD-3A189E72DBB9}"/>
+    <hyperlink ref="A45" display="Texas" xr:uid="{03AB2E31-E899-7F4B-A4F4-E99983B6829A}"/>
+    <hyperlink ref="A46" display="Utah" xr:uid="{2472D2E6-5450-D340-A9DC-B58C092D2248}"/>
+    <hyperlink ref="A47" display="Vermont" xr:uid="{C237FCE9-B58F-5046-99E2-F581EA237A05}"/>
+    <hyperlink ref="A48" display="Virginia" xr:uid="{55146525-6B30-1E4D-B7AB-C1F213D87B0A}"/>
+    <hyperlink ref="A49" display="Washington" xr:uid="{E2A66A38-8144-6549-98C0-B7B62714FBB3}"/>
+    <hyperlink ref="A50" display="West Virginia" xr:uid="{3F8E17A2-5B2C-7B42-8D2B-4074D12BF9CD}"/>
+    <hyperlink ref="A51" display="Wisconsin" xr:uid="{CD0FF911-2976-8F47-A236-55455D048AE1}"/>
+    <hyperlink ref="A52" display="Wyoming" xr:uid="{B722C75E-9A2C-704C-8C8E-A030292B1770}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
